--- a/dva-d3-charts/Q1/table.xlsx
+++ b/dva-d3-charts/Q1/table.xlsx
@@ -518,7 +518,7 @@
   <dimension ref="E9:O18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:O18"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10">
-        <v>4.0599999999999996</v>
+        <v>9.1</v>
       </c>
       <c r="L17" s="10">
         <v>15.48</v>

--- a/dva-d3-charts/Q1/table.xlsx
+++ b/dva-d3-charts/Q1/table.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Saifil/Desktop/smomin34/Sem_I/GITProj/data-visual-analytics/dva-d3-charts/Q1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758FF838-AFA2-E749-BFDC-DB5F615F834B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Malay</t>
   </si>
@@ -44,12 +50,15 @@
   <si>
     <t>%  population 65 years and above</t>
   </si>
+  <si>
+    <t>Population Statistics of Various Ethnic Groups in the Year 2017 &amp; 2018</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -77,6 +86,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,7 +156,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -179,6 +194,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -190,6 +211,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -514,14 +543,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E9:O18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="0.83203125" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" customWidth="1"/>
@@ -532,7 +561,7 @@
     <col min="15" max="15" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:15">
+    <row r="9" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -545,7 +574,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -558,20 +587,22 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="5:15" ht="24" customHeight="1" thickBot="1">
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+    <row r="11" spans="5:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="5:15" ht="25" customHeight="1">
+    <row r="12" spans="5:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E12" s="12"/>
       <c r="F12" s="11">
         <v>2017</v>
@@ -588,7 +619,7 @@
       <c r="N12" s="11"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="5:15" s="1" customFormat="1" ht="25" customHeight="1">
+    <row r="13" spans="5:15" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E13" s="13"/>
       <c r="F13" s="8" t="s">
         <v>0</v>
@@ -617,7 +648,7 @@
       </c>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="5:15" ht="20" customHeight="1">
+    <row r="14" spans="5:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E14" s="4" t="s">
         <v>4</v>
       </c>
@@ -648,7 +679,7 @@
       </c>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="5:15" ht="20" customHeight="1">
+    <row r="15" spans="5:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E15" s="4" t="s">
         <v>5</v>
       </c>
@@ -679,7 +710,7 @@
       </c>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="5:15" ht="20" customHeight="1">
+    <row r="16" spans="5:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="4" t="s">
         <v>6</v>
       </c>
@@ -710,7 +741,7 @@
       </c>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="5:15" ht="22" customHeight="1" thickBot="1">
+    <row r="17" spans="5:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E17" s="9" t="s">
         <v>7</v>
       </c>
@@ -741,7 +772,7 @@
       </c>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="5:15" ht="20" customHeight="1">
+    <row r="18" spans="5:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -755,10 +786,11 @@
       <c r="O18" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E11:N11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
